--- a/对接资料/宁波人保/保费分期项目实施计划_V1.0.xlsx
+++ b/对接资料/宁波人保/保费分期项目实施计划_V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本说明" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet name="实施风险" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">待定问题!$A$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">待定问题!$A$3:$J$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">功能列表!$A$3:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">实施风险!$A$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">实施风险!$A$3:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">实施计划!$A$4:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">项目人力资源!$A$3:$F$3</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="265">
   <si>
     <t>初始化创建</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -743,10 +743,6 @@
     <t>人保开发团队(宇为?)</t>
   </si>
   <si>
-    <t>APP/H5的开发，以H5对接公众号为先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本系统开发顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,10 +828,6 @@
   </si>
   <si>
     <t>保费分期系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件传输实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -852,6 +844,282 @@
   </si>
   <si>
     <t>畅容互联网征信报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>系统部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>问题分类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接接口数量及交互字段确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险现状</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险提出</t>
+  </si>
+  <si>
+    <t>新增第三方数据推送存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与保费分期系统对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E签宝对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案实施中</t>
+  </si>
+  <si>
+    <t>确认方案中</t>
+  </si>
+  <si>
+    <t>解决人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与银行间的通用接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与人保系统的接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与保费分期系统的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作平台流水号</t>
+  </si>
+  <si>
+    <t>问题细分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作平台代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口字段/问题简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要新的代码？宁波人保、深圳人保各自提供一个？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 保费分期是否需要？此字段和下方几个字段的必输项有关联。
+2. 若需要多辆车，打包保费如何处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商所在城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约+支用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行贷款产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各行是否一致，如何定？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提款用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费分期默认消费？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款申请/签约+支用，同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型如何定？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费分期以下几个渠道商字段是否需要？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道商名称
+渠道商类型
+渠道商所属省份
+渠道商所在城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购置资产车系及以下十余字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费分期这几个字段是否需要？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首付款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此金额如何定？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购车用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始抵押率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费分期如何定，是否需要？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押人相关信息是否需要？如何定义抵押人？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押人姓名
+抵押人证件类型
+抵押人证件号码
+抵押人与借款人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月固定收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人、配偶、担保人都需要获取？如何获取？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要。需要时汉字还是编码？什么编码？省市区国标2014年？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人填谁？人保的还是客户的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人名称
+收款人账号
+收款人开户银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费分期是否需要该接口？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷后管理文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该接口是否由我方落实？是，则人保在生成保单后，需将信息传输给我方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E账户开户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像资料存储在哪儿？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作平台合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即保单号。保单号如何获取？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添基通用接口在银行接口字段基础上，添加银行代码、产品代码、合作方三个字段。添基通用接口根据这三个字段，内部作区分，调用者不需加工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人保在生成保单号之后，需要将信息传给保费分期系统?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保单在签约+支用之前生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,9 +1130,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +1226,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1003,7 +1278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1040,17 +1315,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1111,6 +1375,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1125,7 +1426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1203,6 +1504,48 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1218,37 +1561,19 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1583,38 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -2427,13 +2783,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
@@ -2501,13 +2857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
@@ -2575,13 +2931,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>362</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
@@ -2653,13 +3009,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
@@ -2727,13 +3083,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
@@ -2801,13 +3157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>362</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
@@ -3157,20 +3513,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -3426,20 +3782,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -4217,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -4245,27 +4601,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -4393,16 +4749,14 @@
       <c r="BS2" s="4"/>
     </row>
     <row r="3" spans="1:71" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>176</v>
-      </c>
+      <c r="A3" s="23"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="34" t="s">
-        <v>178</v>
+      <c r="G3" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -4489,7 +4843,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>54</v>
@@ -4498,7 +4852,7 @@
         <v>55</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>51</v>
@@ -4529,16 +4883,16 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="32">
+      <c r="H5" s="27">
         <v>43101</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="27">
         <v>43101</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="30">
         <f t="shared" ref="J5:J11" si="0">NETWORKDAYS(H5,I5)</f>
         <v>1</v>
       </c>
@@ -4546,7 +4900,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4567,13 +4921,13 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="27">
         <v>43115</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="27">
         <v>43117</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="30">
         <f>NETWORKDAYS(H6,I6)</f>
         <v>3</v>
       </c>
@@ -4581,7 +4935,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4601,18 +4955,18 @@
         <v>127</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="27">
         <v>43118</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="27">
         <v>43119</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4620,7 +4974,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4640,18 +4994,18 @@
         <v>127</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="27">
         <v>43122</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="27">
         <v>43123</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4659,7 +5013,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4679,18 +5033,18 @@
         <v>127</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="27">
         <v>43124</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="27">
         <v>43125</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4698,7 +5052,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4717,13 +5071,13 @@
       <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="27">
         <v>43126</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="27">
         <v>43126</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4731,7 +5085,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4752,13 +5106,13 @@
       <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="27">
         <v>43126</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="27">
         <v>43126</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4766,7 +5120,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4786,18 +5140,18 @@
         <v>145</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="27">
         <v>43129</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="27">
         <v>43129</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="30">
         <f t="shared" ref="J12:J16" si="2">NETWORKDAYS(H12,I12)</f>
         <v>1</v>
       </c>
@@ -4805,7 +5159,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4824,13 +5178,13 @@
       <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="27">
         <v>43130</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="27">
         <v>43130</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4838,7 +5192,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4856,18 +5210,18 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="27">
         <v>43131</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="27">
         <v>43131</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4875,7 +5229,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4890,19 +5244,19 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>7</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="27">
         <v>43132</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="27">
         <v>43132</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4910,7 +5264,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4929,13 +5283,13 @@
       <c r="G16" s="3">
         <v>8</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="27">
         <v>43133</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="27">
         <v>43133</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4943,7 +5297,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4964,13 +5318,13 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="27">
         <v>43112</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="27">
         <v>43115</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="30">
         <f>NETWORKDAYS(H17,I17)</f>
         <v>2</v>
       </c>
@@ -4978,7 +5332,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="33" t="s">
+      <c r="O17" s="28" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4999,13 +5353,13 @@
       <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="27">
         <v>43116</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="27">
         <v>43116</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="30">
         <f t="shared" ref="J18:J77" si="3">NETWORKDAYS(H18,I18)</f>
         <v>1</v>
       </c>
@@ -5013,7 +5367,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5036,13 +5390,13 @@
       <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="27">
         <v>43116</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="27">
         <v>43116</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5050,7 +5404,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5071,13 +5425,13 @@
       <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="27">
         <v>43117</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="27">
         <v>43118</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5085,7 +5439,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5105,18 +5459,18 @@
         <v>163</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="27">
         <v>43119</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="27">
         <v>43119</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="30">
         <f>NETWORKDAYS(H21,I21)</f>
         <v>1</v>
       </c>
@@ -5124,7 +5478,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5135,7 +5489,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>148</v>
@@ -5144,18 +5498,18 @@
         <v>163</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" s="3">
         <v>3</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="27">
         <v>43122</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="27">
         <v>43122</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="30">
         <f>NETWORKDAYS(H22,I22)</f>
         <v>1</v>
       </c>
@@ -5163,7 +5517,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5184,13 +5538,13 @@
       <c r="G23" s="3">
         <v>4</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="27">
         <v>43123</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="27">
         <v>43123</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5198,7 +5552,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5221,13 +5575,13 @@
       <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="27">
         <v>43123</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="27">
         <v>43123</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5235,7 +5589,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5254,13 +5608,13 @@
       <c r="G25" s="3">
         <v>5</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="27">
         <v>43124</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="27">
         <v>43125</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5268,7 +5622,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="33" t="s">
+      <c r="O25" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5289,13 +5643,13 @@
       <c r="G26" s="3">
         <v>6</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="27">
         <v>43126</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="27">
         <v>43126</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="30">
         <f>NETWORKDAYS(H26,I26)</f>
         <v>1</v>
       </c>
@@ -5303,7 +5657,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5324,13 +5678,13 @@
       <c r="G27" s="3">
         <v>7</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="27">
         <v>43129</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="27">
         <v>43132</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -5338,7 +5692,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="33" t="s">
+      <c r="O27" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5359,13 +5713,13 @@
       <c r="G28" s="3">
         <v>7</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="27">
         <v>43129</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="27">
         <v>43132</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="30">
         <f>NETWORKDAYS(H28,I28)</f>
         <v>4</v>
       </c>
@@ -5373,7 +5727,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5392,13 +5746,13 @@
       <c r="G29" s="3">
         <v>7</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="27">
         <v>43129</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="27">
         <v>43132</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="30">
         <f>NETWORKDAYS(H29,I29)</f>
         <v>4</v>
       </c>
@@ -5406,7 +5760,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="33" t="s">
+      <c r="O29" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5427,13 +5781,13 @@
       <c r="G30" s="3">
         <v>7</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="27">
         <v>43129</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="27">
         <v>43132</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="30">
         <f>NETWORKDAYS(H30,I30)</f>
         <v>4</v>
       </c>
@@ -5441,7 +5795,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="33" t="s">
+      <c r="O30" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5462,13 +5816,13 @@
       <c r="G31" s="3">
         <v>7</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="27">
         <v>43129</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="27">
         <v>43132</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="30">
         <f>NETWORKDAYS(H31,I31)</f>
         <v>4</v>
       </c>
@@ -5476,7 +5830,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="33" t="s">
+      <c r="O31" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5497,13 +5851,13 @@
       <c r="G32" s="3">
         <v>8</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="27">
         <v>43101</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="27">
         <v>43101</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5511,7 +5865,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="33" t="s">
+      <c r="O32" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5532,13 +5886,13 @@
       <c r="G33" s="3">
         <v>8</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="27">
         <v>43101</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="27">
         <v>43101</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5546,7 +5900,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5567,13 +5921,13 @@
       <c r="G34" s="3">
         <v>8</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="27">
         <v>43101</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="27">
         <v>43101</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5581,7 +5935,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5604,13 +5958,13 @@
       <c r="G35" s="3">
         <v>8</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="27">
         <v>43101</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="27">
         <v>43101</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5618,7 +5972,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="33" t="s">
+      <c r="O35" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5637,13 +5991,13 @@
       <c r="G36" s="3">
         <v>9</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="27">
         <v>43133</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="27">
         <v>43133</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -5651,7 +6005,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="33" t="s">
+      <c r="O36" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5670,13 +6024,13 @@
       <c r="G37" s="3">
         <v>10</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="27">
         <v>43136</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="27">
         <v>43145</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -5684,7 +6038,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5704,18 +6058,18 @@
         <v>162</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="27">
         <v>43115</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="27">
         <v>43116</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5723,7 +6077,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="33" t="s">
+      <c r="O38" s="28" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5742,13 +6096,13 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="27">
         <v>43112</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="27">
         <v>43116</v>
       </c>
-      <c r="J39" s="35">
+      <c r="J39" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -5756,7 +6110,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="33" t="s">
+      <c r="O39" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5767,7 +6121,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -5775,13 +6129,13 @@
       <c r="G40" s="3">
         <v>1</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="27">
         <v>43112</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="27">
         <v>43116</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -5789,7 +6143,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="33" t="s">
+      <c r="O40" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5803,20 +6157,20 @@
         <v>161</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
         <v>2</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="27">
         <v>43116</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="27">
         <v>43117</v>
       </c>
-      <c r="J41" s="35">
+      <c r="J41" s="30">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -5824,7 +6178,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="33" t="s">
+      <c r="O41" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5843,21 +6197,21 @@
       <c r="G42" s="3">
         <v>2</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="27">
         <v>43112</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="27">
         <v>43119</v>
       </c>
-      <c r="J42" s="35">
-        <f>NETWORKDAYS(H42,I42)</f>
+      <c r="J42" s="30">
+        <f t="shared" ref="J42:J47" si="4">NETWORKDAYS(H42,I42)</f>
         <v>6</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="33" t="s">
+      <c r="O42" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5878,21 +6232,21 @@
       <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="27">
         <v>43117</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="27">
         <v>43119</v>
       </c>
-      <c r="J43" s="35">
-        <f>NETWORKDAYS(H43,I43)</f>
+      <c r="J43" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="33" t="s">
+      <c r="O43" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5911,21 +6265,21 @@
       <c r="G44" s="3">
         <v>3</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="27">
         <v>43117</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="27">
         <v>43119</v>
       </c>
-      <c r="J44" s="35">
-        <f>NETWORKDAYS(H44,I44)</f>
+      <c r="J44" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="33" t="s">
+      <c r="O44" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5944,21 +6298,21 @@
       <c r="G45" s="3">
         <v>3</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="27">
         <v>43117</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="27">
         <v>43119</v>
       </c>
-      <c r="J45" s="35">
-        <f>NETWORKDAYS(H45,I45)</f>
+      <c r="J45" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="33" t="s">
+      <c r="O45" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5977,21 +6331,21 @@
       <c r="G46" s="3">
         <v>3</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="27">
         <v>43122</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="27">
         <v>43124</v>
       </c>
-      <c r="J46" s="35">
-        <f>NETWORKDAYS(H46,I46)</f>
+      <c r="J46" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="33" t="s">
+      <c r="O46" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6010,21 +6364,21 @@
       <c r="G47" s="3">
         <v>3</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="27">
         <v>43122</v>
       </c>
-      <c r="I47" s="32">
+      <c r="I47" s="27">
         <v>43124</v>
       </c>
-      <c r="J47" s="35">
-        <f>NETWORKDAYS(H47,I47)</f>
+      <c r="J47" s="30">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="33" t="s">
+      <c r="O47" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6045,13 +6399,13 @@
       <c r="G48" s="3">
         <v>4</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H48" s="27">
         <v>43101</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="27">
         <v>43101</v>
       </c>
-      <c r="J48" s="35">
+      <c r="J48" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6059,7 +6413,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="33" t="s">
+      <c r="O48" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6080,13 +6434,13 @@
       <c r="G49" s="3">
         <v>4</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="27">
         <v>43101</v>
       </c>
-      <c r="I49" s="32">
+      <c r="I49" s="27">
         <v>43101</v>
       </c>
-      <c r="J49" s="35">
+      <c r="J49" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6094,7 +6448,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="33" t="s">
+      <c r="O49" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6115,13 +6469,13 @@
       <c r="G50" s="3">
         <v>4</v>
       </c>
-      <c r="H50" s="32">
+      <c r="H50" s="27">
         <v>43101</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I50" s="27">
         <v>43101</v>
       </c>
-      <c r="J50" s="35">
+      <c r="J50" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6129,7 +6483,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="33" t="s">
+      <c r="O50" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6148,13 +6502,13 @@
       <c r="G51" s="3">
         <v>5</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="27">
         <v>43125</v>
       </c>
-      <c r="I51" s="32">
+      <c r="I51" s="27">
         <v>43125</v>
       </c>
-      <c r="J51" s="35">
+      <c r="J51" s="30">
         <f>NETWORKDAYS(H51,I51)</f>
         <v>1</v>
       </c>
@@ -6162,7 +6516,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="33" t="s">
+      <c r="O51" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6181,13 +6535,13 @@
       <c r="G52" s="3">
         <v>5</v>
       </c>
-      <c r="H52" s="32">
+      <c r="H52" s="27">
         <v>43126</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="27">
         <v>43126</v>
       </c>
-      <c r="J52" s="35">
+      <c r="J52" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6195,7 +6549,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="33" t="s">
+      <c r="O52" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6214,13 +6568,13 @@
       <c r="G53" s="3">
         <v>6</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="27">
         <v>43129</v>
       </c>
-      <c r="I53" s="32">
+      <c r="I53" s="27">
         <v>43133</v>
       </c>
-      <c r="J53" s="35">
+      <c r="J53" s="30">
         <f>NETWORKDAYS(H53,I53)</f>
         <v>5</v>
       </c>
@@ -6228,7 +6582,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="33" t="s">
+      <c r="O53" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6247,13 +6601,13 @@
       <c r="G54" s="3">
         <v>6</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="27">
         <v>43129</v>
       </c>
-      <c r="I54" s="32">
+      <c r="I54" s="27">
         <v>43133</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="30">
         <f>NETWORKDAYS(H54,I54)</f>
         <v>5</v>
       </c>
@@ -6261,7 +6615,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="33" t="s">
+      <c r="O54" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6280,13 +6634,13 @@
       <c r="G55" s="3">
         <v>6</v>
       </c>
-      <c r="H55" s="32">
+      <c r="H55" s="27">
         <v>43129</v>
       </c>
-      <c r="I55" s="32">
+      <c r="I55" s="27">
         <v>43133</v>
       </c>
-      <c r="J55" s="35">
+      <c r="J55" s="30">
         <f>NETWORKDAYS(H55,I55)</f>
         <v>5</v>
       </c>
@@ -6294,7 +6648,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="33" t="s">
+      <c r="O55" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6313,13 +6667,13 @@
       <c r="G56" s="3">
         <v>6</v>
       </c>
-      <c r="H56" s="32">
+      <c r="H56" s="27">
         <v>43129</v>
       </c>
-      <c r="I56" s="32">
+      <c r="I56" s="27">
         <v>43133</v>
       </c>
-      <c r="J56" s="35">
+      <c r="J56" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -6327,7 +6681,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="33" t="s">
+      <c r="O56" s="28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6348,13 +6702,13 @@
       <c r="G57" s="3">
         <v>1</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="27">
         <v>43115</v>
       </c>
-      <c r="I57" s="32">
+      <c r="I57" s="27">
         <v>43133</v>
       </c>
-      <c r="J57" s="35">
+      <c r="J57" s="30">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -6362,7 +6716,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="33" t="s">
+      <c r="O57" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6375,7 +6729,7 @@
         <v>174</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -6383,13 +6737,13 @@
       <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="H58" s="32">
+      <c r="H58" s="27">
         <v>43117</v>
       </c>
-      <c r="I58" s="32">
+      <c r="I58" s="27">
         <v>43119</v>
       </c>
-      <c r="J58" s="35">
+      <c r="J58" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -6397,7 +6751,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="33" t="s">
+      <c r="O58" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6416,13 +6770,13 @@
       <c r="G59" s="3">
         <v>2</v>
       </c>
-      <c r="H59" s="32">
+      <c r="H59" s="27">
         <v>43122</v>
       </c>
-      <c r="I59" s="32">
+      <c r="I59" s="27">
         <v>43133</v>
       </c>
-      <c r="J59" s="35">
+      <c r="J59" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6430,7 +6784,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="33" t="s">
+      <c r="O59" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6449,13 +6803,13 @@
       <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60" s="32">
+      <c r="H60" s="27">
         <v>43122</v>
       </c>
-      <c r="I60" s="32">
+      <c r="I60" s="27">
         <v>43133</v>
       </c>
-      <c r="J60" s="35">
+      <c r="J60" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6463,7 +6817,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="33" t="s">
+      <c r="O60" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6482,13 +6836,13 @@
       <c r="G61" s="3">
         <v>4</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="27">
         <v>43122</v>
       </c>
-      <c r="I61" s="32">
+      <c r="I61" s="27">
         <v>43133</v>
       </c>
-      <c r="J61" s="35">
+      <c r="J61" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6496,7 +6850,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="33" t="s">
+      <c r="O61" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6515,13 +6869,13 @@
       <c r="G62" s="3">
         <v>5</v>
       </c>
-      <c r="H62" s="32">
+      <c r="H62" s="27">
         <v>43122</v>
       </c>
-      <c r="I62" s="32">
+      <c r="I62" s="27">
         <v>43133</v>
       </c>
-      <c r="J62" s="35">
+      <c r="J62" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6529,7 +6883,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="33" t="s">
+      <c r="O62" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6550,13 +6904,13 @@
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="27">
         <v>43122</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I63" s="27">
         <v>43133</v>
       </c>
-      <c r="J63" s="35">
+      <c r="J63" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6564,7 +6918,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="33" t="s">
+      <c r="O63" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6583,13 +6937,13 @@
       <c r="G64" s="3">
         <v>2</v>
       </c>
-      <c r="H64" s="32">
+      <c r="H64" s="27">
         <v>43122</v>
       </c>
-      <c r="I64" s="32">
+      <c r="I64" s="27">
         <v>43133</v>
       </c>
-      <c r="J64" s="35">
+      <c r="J64" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6597,7 +6951,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="33" t="s">
+      <c r="O64" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6616,13 +6970,13 @@
       <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65" s="32">
+      <c r="H65" s="27">
         <v>43122</v>
       </c>
-      <c r="I65" s="32">
+      <c r="I65" s="27">
         <v>43133</v>
       </c>
-      <c r="J65" s="35">
+      <c r="J65" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6630,7 +6984,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="33" t="s">
+      <c r="O65" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6649,13 +7003,13 @@
       <c r="G66" s="3">
         <v>4</v>
       </c>
-      <c r="H66" s="32">
+      <c r="H66" s="27">
         <v>43122</v>
       </c>
-      <c r="I66" s="32">
+      <c r="I66" s="27">
         <v>43133</v>
       </c>
-      <c r="J66" s="35">
+      <c r="J66" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6663,7 +7017,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="33" t="s">
+      <c r="O66" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6682,13 +7036,13 @@
       <c r="G67" s="3">
         <v>5</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H67" s="27">
         <v>43122</v>
       </c>
-      <c r="I67" s="32">
+      <c r="I67" s="27">
         <v>43133</v>
       </c>
-      <c r="J67" s="35">
+      <c r="J67" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -6696,7 +7050,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="33" t="s">
+      <c r="O67" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6709,7 +7063,7 @@
         <v>169</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6717,13 +7071,13 @@
       <c r="G68" s="3">
         <v>1</v>
       </c>
-      <c r="H68" s="32">
+      <c r="H68" s="27">
         <v>43115</v>
       </c>
-      <c r="I68" s="32">
+      <c r="I68" s="27">
         <v>43133</v>
       </c>
-      <c r="J68" s="35">
+      <c r="J68" s="30">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -6731,7 +7085,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="33" t="s">
+      <c r="O68" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6742,7 +7096,7 @@
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6750,13 +7104,13 @@
       <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="27">
         <v>43136</v>
       </c>
-      <c r="I69" s="32">
+      <c r="I69" s="27">
         <v>43145</v>
       </c>
-      <c r="J69" s="35">
+      <c r="J69" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -6764,7 +7118,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="33" t="s">
+      <c r="O69" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6775,7 +7129,7 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6783,13 +7137,13 @@
       <c r="G70" s="3">
         <v>2</v>
       </c>
-      <c r="H70" s="32">
+      <c r="H70" s="27">
         <v>43136</v>
       </c>
-      <c r="I70" s="32">
+      <c r="I70" s="27">
         <v>43145</v>
       </c>
-      <c r="J70" s="35">
+      <c r="J70" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -6797,7 +7151,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="33" t="s">
+      <c r="O70" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6808,7 +7162,7 @@
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6816,13 +7170,13 @@
       <c r="G71" s="3">
         <v>2</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H71" s="27">
         <v>43136</v>
       </c>
-      <c r="I71" s="32">
+      <c r="I71" s="27">
         <v>43145</v>
       </c>
-      <c r="J71" s="35">
+      <c r="J71" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -6830,7 +7184,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="33" t="s">
+      <c r="O71" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6841,7 +7195,7 @@
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6849,13 +7203,13 @@
       <c r="G72" s="3">
         <v>2</v>
       </c>
-      <c r="H72" s="32">
+      <c r="H72" s="27">
         <v>43136</v>
       </c>
-      <c r="I72" s="32">
+      <c r="I72" s="27">
         <v>43145</v>
       </c>
-      <c r="J72" s="35">
+      <c r="J72" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -6863,7 +7217,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="33" t="s">
+      <c r="O72" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6874,7 +7228,7 @@
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6882,13 +7236,13 @@
       <c r="G73" s="3">
         <v>2</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="27">
         <v>43136</v>
       </c>
-      <c r="I73" s="32">
+      <c r="I73" s="27">
         <v>43145</v>
       </c>
-      <c r="J73" s="35">
+      <c r="J73" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -6896,20 +7250,20 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="33" t="s">
+      <c r="O73" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <f t="shared" ref="A74:A77" si="4">A73+1</f>
+        <f t="shared" ref="A74:A77" si="5">A73+1</f>
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6917,13 +7271,13 @@
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="32">
+      <c r="H74" s="27">
         <v>43115</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I74" s="27">
         <v>43133</v>
       </c>
-      <c r="J74" s="35">
+      <c r="J74" s="30">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -6931,18 +7285,18 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="33" t="s">
+      <c r="O74" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6950,13 +7304,13 @@
       <c r="G75" s="3">
         <v>2</v>
       </c>
-      <c r="H75" s="32">
+      <c r="H75" s="27">
         <v>43136</v>
       </c>
-      <c r="I75" s="32">
+      <c r="I75" s="27">
         <v>43145</v>
       </c>
-      <c r="J75" s="35">
+      <c r="J75" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -6964,18 +7318,18 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="33" t="s">
+      <c r="O75" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6983,13 +7337,13 @@
       <c r="G76" s="3">
         <v>2</v>
       </c>
-      <c r="H76" s="32">
+      <c r="H76" s="27">
         <v>43136</v>
       </c>
-      <c r="I76" s="32">
+      <c r="I76" s="27">
         <v>43145</v>
       </c>
-      <c r="J76" s="35">
+      <c r="J76" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -6997,18 +7351,18 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="33" t="s">
+      <c r="O76" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -7018,7 +7372,7 @@
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="35">
+      <c r="J77" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7026,7 +7380,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="33" t="s">
+      <c r="O77" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7037,164 +7391,164 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O12:O77">
-    <cfRule type="cellIs" dxfId="47" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="94" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="95" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="96" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="97" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="98" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:O22">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="54" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36:O37">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O77">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"测试团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"畅圣开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"风控团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="159" operator="equal">
       <formula>"畅容开发团队"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="160" operator="equal">
       <formula>"王文"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="161" operator="equal">
       <formula>"潘志浩"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="162" operator="equal">
       <formula>"卢肖东"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="163" operator="equal">
       <formula>"杨小东"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7234,18 +7588,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -7384,7 +7738,7 @@
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -7398,7 +7752,7 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
@@ -7412,7 +7766,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
@@ -7424,7 +7778,7 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
@@ -7436,7 +7790,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
@@ -7448,7 +7802,7 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
@@ -7472,7 +7826,7 @@
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -7488,7 +7842,7 @@
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
@@ -7502,7 +7856,7 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
@@ -7516,7 +7870,7 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
@@ -7530,7 +7884,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
@@ -7544,7 +7898,7 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="17" t="s">
         <v>28</v>
       </c>
@@ -7558,7 +7912,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="17" t="s">
         <v>29</v>
       </c>
@@ -7572,7 +7926,7 @@
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="17" t="s">
         <v>30</v>
       </c>
@@ -7586,7 +7940,7 @@
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="26" t="s">
         <v>61</v>
       </c>
@@ -7600,7 +7954,7 @@
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="26" t="s">
         <v>62</v>
       </c>
@@ -7654,45 +8008,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="15" customWidth="1"/>
-    <col min="6" max="63" width="2.625" style="15" customWidth="1"/>
-    <col min="64" max="16384" width="9" style="15"/>
+    <col min="2" max="2" width="17.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="15" customWidth="1"/>
+    <col min="8" max="9" width="10" style="15" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="15" customWidth="1"/>
+    <col min="11" max="68" width="2.625" style="15" customWidth="1"/>
+    <col min="69" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:68" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
@@ -7740,24 +8098,29 @@
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
       <c r="BK1" s="4"/>
-    </row>
-    <row r="2" spans="1:63" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+    </row>
+    <row r="2" spans="1:68" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -7805,118 +8168,580 @@
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4"/>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="H3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39">
-        <v>43112</v>
-      </c>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="B4" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:68" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="38">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <f t="shared" ref="A6:A7" si="0">A5+1</f>
+      <c r="B5" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="38">
+        <f t="shared" ref="A6:A26" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:68" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A9" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:68" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:68" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A12" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A13" s="38">
+        <f>A12+1</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:68" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="1:68" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="38">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
+        <f>A18+1</f>
+        <v>16</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="38">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="33">
+        <v>43117</v>
+      </c>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E3"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+  <autoFilter ref="A3:J3"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="B5:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL7"/>
+  <dimension ref="A1:BO9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="64" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="24" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="67" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:67" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -7966,23 +8791,26 @@
       <c r="BJ1" s="4"/>
       <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
-    </row>
-    <row r="2" spans="1:64" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+    </row>
+    <row r="2" spans="1:67" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -8032,94 +8860,194 @@
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4"/>
       <c r="BL2" s="4"/>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="G3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39">
-        <v>43112</v>
-      </c>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="E4" s="32"/>
+      <c r="F4" s="33">
+        <v>43117</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="39">
-        <v>43112</v>
-      </c>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <f t="shared" ref="A6:A7" si="0">A5+1</f>
+      <c r="E5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <f t="shared" ref="A6:A9" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="B6" s="50"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="B7" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="33">
+        <v>43112</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="33">
+        <v>43115</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F3"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+  <autoFilter ref="A3:I3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7">
+  <conditionalFormatting sqref="I4:I9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"风险已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"方案实施中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"确认方案中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"风险提出"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D9">
       <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I9">
+      <formula1>"风险提出,确认方案中,方案实施中,风险已解决,非风险"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>